--- a/QUANGHANH2/excel/CDVT/download/huy-dong-oto.xlsx
+++ b/QUANGHANH2/excel/CDVT/download/huy-dong-oto.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="20">
   <si>
     <t>Mã thiết bị</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>Ngày đưa vào sử dụng</t>
-  </si>
-  <si>
-    <t>Ngày bảo dưỡng gần nhất</t>
   </si>
   <si>
     <t>Tổng thời gian hoạt động</t>
@@ -474,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U38"/>
+  <dimension ref="A1:T38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,17 +488,16 @@
     <col min="9" max="9" width="24.85546875" customWidth="1"/>
     <col min="10" max="10" width="23.140625" customWidth="1"/>
     <col min="11" max="11" width="28.7109375" customWidth="1"/>
-    <col min="12" max="12" width="36.28515625" customWidth="1"/>
-    <col min="13" max="13" width="27.140625" customWidth="1"/>
-    <col min="14" max="15" width="34.28515625" customWidth="1"/>
-    <col min="16" max="16" width="25.5703125" customWidth="1"/>
-    <col min="17" max="17" width="20.28515625" customWidth="1"/>
-    <col min="18" max="18" width="23.28515625" customWidth="1"/>
-    <col min="19" max="19" width="25.28515625" customWidth="1"/>
-    <col min="20" max="20" width="41.42578125" customWidth="1"/>
+    <col min="12" max="12" width="27.140625" customWidth="1"/>
+    <col min="13" max="14" width="34.28515625" customWidth="1"/>
+    <col min="15" max="15" width="25.5703125" customWidth="1"/>
+    <col min="16" max="16" width="20.28515625" customWidth="1"/>
+    <col min="17" max="17" width="23.28515625" customWidth="1"/>
+    <col min="18" max="18" width="25.28515625" customWidth="1"/>
+    <col min="19" max="19" width="41.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -509,10 +505,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -542,10 +538,10 @@
         <v>10</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>12</v>
@@ -556,277 +552,259 @@
       <c r="R1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U1" s="4"/>
+      <c r="T1" s="4"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M34" t="s">
-        <v>17</v>
-      </c>
-      <c r="N34" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="O34" t="s">
+        <v>16</v>
       </c>
       <c r="P34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S34" t="s">
-        <v>17</v>
-      </c>
-      <c r="T34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M35" t="s">
-        <v>17</v>
-      </c>
-      <c r="N35" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="O35" t="s">
+        <v>16</v>
       </c>
       <c r="P35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S35" t="s">
-        <v>17</v>
-      </c>
-      <c r="T35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M36" t="s">
-        <v>17</v>
-      </c>
-      <c r="N36" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="O36" t="s">
+        <v>16</v>
       </c>
       <c r="P36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S36" t="s">
-        <v>17</v>
-      </c>
-      <c r="T36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M37" t="s">
-        <v>17</v>
-      </c>
-      <c r="N37" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="O37" t="s">
+        <v>16</v>
       </c>
       <c r="P37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S37" t="s">
-        <v>17</v>
-      </c>
-      <c r="T37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M38" t="s">
-        <v>17</v>
-      </c>
-      <c r="N38" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="O38" t="s">
+        <v>16</v>
       </c>
       <c r="P38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S38" t="s">
-        <v>17</v>
-      </c>
-      <c r="T38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
